--- a/김성근_SQL/항공table.xlsx
+++ b/김성근_SQL/항공table.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\SQL_project\김성근_SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ss\SQL_project\김성근_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F7F69-D72A-4CA6-BD8E-B6B3D32EC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="14520" windowHeight="15075" xr2:uid="{6101281F-1047-4B84-A127-52C8629E4AB0}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="14520" windowHeight="15075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>항공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,22 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천국제공항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>항공사에 예매함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>airport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,66 +158,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>나라명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안서준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAL001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR/ICH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국/인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>arrive_nation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주국제공항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SJ960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안서준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAL001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996A1E7-C75E-4307-BC10-AB437041D194}">
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
@@ -709,26 +696,26 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>4</v>
@@ -737,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
@@ -748,62 +735,62 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1">
         <v>1445</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -831,25 +818,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -857,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -876,24 +863,24 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>960522</v>
@@ -902,130 +889,136 @@
         <v>1094657709</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L1" r:id="rId1" xr:uid="{16390B64-05B0-4882-B731-79A907E86E4C}"/>
+    <hyperlink ref="L1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/김성근_SQL/항공table.xlsx
+++ b/김성근_SQL/항공table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ss\SQL_project\김성근_SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\SQL_project\김성근_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD923B33-F574-4C37-95A4-869CFD2EF57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="14520" windowHeight="15075"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="14520" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B9" sqref="B9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1019,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L1" r:id="rId1"/>
+    <hyperlink ref="L1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
